--- a/updated_Hardware.xlsx
+++ b/updated_Hardware.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mackayp\moordesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDAF260A-55F3-4B68-B2E4-E8A565765D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5259A37A-10E5-4D41-B237-7D91AD79C073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E9EA262-9DA5-4196-B65F-CFA2DC6E9F4D}"/>
+    <workbookView xWindow="-13068" yWindow="-2880" windowWidth="13176" windowHeight="22656" xr2:uid="{4E9EA262-9DA5-4196-B65F-CFA2DC6E9F4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -625,6 +625,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -850,7 +853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -924,6 +927,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1238,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882889D9-0B91-49AB-ABAE-962CA72F6177}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2302,21 +2306,21 @@
       <c r="A80" s="30"/>
       <c r="B80" s="5"/>
     </row>
-    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B81" s="5"/>
     </row>
-    <row r="82" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="5">
-        <v>-8.6666666666666656E-2</v>
+      <c r="B82" s="31">
+        <v>-8.6666666666666663E-3</v>
       </c>
       <c r="C82">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D82">
         <v>0.8</v>
@@ -2330,16 +2334,19 @@
       <c r="G82">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B83" s="5">
-        <v>1.0886734693877536E-2</v>
+      <c r="B83" s="31">
+        <v>1.0886734693877536E-3</v>
       </c>
       <c r="C83">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D83">
         <v>0.5</v>
@@ -2354,15 +2361,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="5">
-        <v>-9.4964028776978404E-2</v>
+      <c r="B84" s="31">
+        <v>-9.4964028776978408E-3</v>
       </c>
       <c r="C84">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D84">
         <v>0.7</v>
@@ -2377,15 +2384,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B85" s="5">
-        <v>-248.79400000000001</v>
+      <c r="B85" s="31">
+        <v>-24.8794</v>
       </c>
       <c r="C85">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2394,15 +2401,15 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B86" s="5">
-        <v>-3.4473354999999999</v>
+      <c r="B86" s="31">
+        <v>-0.34473355</v>
       </c>
       <c r="C86">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2411,15 +2418,15 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="5">
-        <v>-2.6079189499999997</v>
+      <c r="B87" s="31">
+        <v>-0.260791895</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2428,15 +2435,15 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="5">
-        <v>2.3142857142857121E-2</v>
+      <c r="B88" s="31">
+        <v>2.3142857142857123E-3</v>
       </c>
       <c r="C88">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D88">
         <v>1.9</v>
@@ -2451,15 +2458,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="5">
-        <v>0.32115957446808496</v>
+      <c r="B89" s="31">
+        <v>3.2115957446808494E-2</v>
       </c>
       <c r="C89">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D89">
         <v>2.5</v>
@@ -2474,15 +2481,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="5">
-        <v>-0.38757017543859651</v>
+      <c r="B90" s="31">
+        <v>-3.875701754385965E-2</v>
       </c>
       <c r="C90">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D90">
         <v>2.5</v>
@@ -2497,15 +2504,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B91" s="5">
-        <v>-0.33305263157894743</v>
+      <c r="B91" s="31">
+        <v>-3.3305263157894741E-2</v>
       </c>
       <c r="C91">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D91">
         <v>2.2000000000000002</v>
@@ -2520,15 +2527,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="5">
-        <v>0.36642857142857105</v>
+      <c r="B92" s="31">
+        <v>3.6642857142857102E-2</v>
       </c>
       <c r="C92">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D92">
         <v>2.5</v>
@@ -2543,15 +2550,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B93" s="5">
-        <v>-0.27385964912280686</v>
+      <c r="B93" s="31">
+        <v>-2.7385964912280687E-2</v>
       </c>
       <c r="C93">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D93">
         <v>1.9</v>
@@ -2566,15 +2573,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="5">
-        <v>1.1510204081632636E-2</v>
+      <c r="B94" s="31">
+        <v>1.1510204081632636E-3</v>
       </c>
       <c r="C94">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D94">
         <v>0.7</v>
@@ -2589,15 +2596,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B95" s="5">
-        <v>1.1030612244897943E-2</v>
+      <c r="B95" s="31">
+        <v>1.1030612244897942E-3</v>
       </c>
       <c r="C95">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D95">
         <v>0.5</v>
@@ -2612,15 +2619,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B96" s="5">
-        <v>-7.9297101449275362E-2</v>
+      <c r="B96" s="31">
+        <v>-7.9297101449275365E-3</v>
       </c>
       <c r="C96">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D96">
         <v>0.7</v>
@@ -2639,11 +2646,11 @@
       <c r="A97" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B97" s="5">
-        <v>-0.12278260869565218</v>
+      <c r="B97" s="31">
+        <v>-1.2278260869565218E-2</v>
       </c>
       <c r="C97">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -2656,11 +2663,11 @@
       <c r="A98" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B98" s="5">
-        <v>-0.15859420289855072</v>
+      <c r="B98" s="31">
+        <v>-1.5859420289855073E-2</v>
       </c>
       <c r="C98">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -2673,11 +2680,11 @@
       <c r="A99" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B99" s="5">
-        <v>-0.31207246376811593</v>
+      <c r="B99" s="31">
+        <v>-3.1207246376811593E-2</v>
       </c>
       <c r="C99">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -2690,11 +2697,11 @@
       <c r="A100" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B100" s="5">
-        <v>-0.4578768115942029</v>
+      <c r="B100" s="31">
+        <v>-4.5787681159420293E-2</v>
       </c>
       <c r="C100">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E100">
         <v>0</v>
